--- a/7/1/1/3/2/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/3/2/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Serie</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI102"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4737,7 +4740,7 @@
         <v>83</v>
       </c>
       <c r="B50">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C50">
         <v>144</v>
@@ -4752,10 +4755,10 @@
         <v>370</v>
       </c>
       <c r="G50">
-        <v>3638</v>
+        <v>3630</v>
       </c>
       <c r="H50">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="K50">
         <v>68</v>
@@ -4764,10 +4767,10 @@
         <v>235</v>
       </c>
       <c r="M50">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N50">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="Q50">
         <v>201</v>
@@ -4779,37 +4782,37 @@
         <v>521</v>
       </c>
       <c r="T50">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="U50">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="X50">
         <v>1448</v>
       </c>
       <c r="Y50">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Z50">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="AC50">
         <v>2205</v>
       </c>
       <c r="AD50">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="AE50">
         <v>1274</v>
       </c>
       <c r="AG50">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="AH50">
         <v>123</v>
       </c>
       <c r="AI50">
-        <v>28617</v>
+        <v>28609</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -4817,13 +4820,13 @@
         <v>84</v>
       </c>
       <c r="B51">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C51">
         <v>154</v>
       </c>
       <c r="D51">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="E51">
         <v>3208</v>
@@ -4832,7 +4835,7 @@
         <v>366</v>
       </c>
       <c r="G51">
-        <v>3495</v>
+        <v>3509</v>
       </c>
       <c r="H51">
         <v>1393</v>
@@ -4844,10 +4847,10 @@
         <v>230</v>
       </c>
       <c r="M51">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N51">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="Q51">
         <v>189</v>
@@ -4859,7 +4862,7 @@
         <v>531</v>
       </c>
       <c r="T51">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="U51">
         <v>2726</v>
@@ -4871,10 +4874,10 @@
         <v>828</v>
       </c>
       <c r="Z51">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="AC51">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="AD51">
         <v>3002</v>
@@ -4889,7 +4892,7 @@
         <v>127</v>
       </c>
       <c r="AI51">
-        <v>28613</v>
+        <v>28626</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -4912,7 +4915,7 @@
         <v>358</v>
       </c>
       <c r="G52">
-        <v>3446</v>
+        <v>3441</v>
       </c>
       <c r="H52">
         <v>1378</v>
@@ -4924,34 +4927,34 @@
         <v>218</v>
       </c>
       <c r="M52">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N52">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="Q52">
         <v>185</v>
       </c>
       <c r="R52">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S52">
         <v>589</v>
       </c>
       <c r="T52">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="U52">
         <v>2704</v>
       </c>
       <c r="X52">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="Y52">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Z52">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="AC52">
         <v>2192</v>
@@ -4963,13 +4966,13 @@
         <v>1313</v>
       </c>
       <c r="AG52">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="AH52">
         <v>119</v>
       </c>
       <c r="AI52">
-        <v>28393</v>
+        <v>28386</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -4983,31 +4986,31 @@
         <v>139</v>
       </c>
       <c r="D53">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="E53">
         <v>3074</v>
       </c>
       <c r="F53">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G53">
-        <v>3281</v>
+        <v>3276</v>
       </c>
       <c r="H53">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K53">
         <v>55</v>
       </c>
       <c r="L53">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M53">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N53">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Q53">
         <v>166</v>
@@ -5022,16 +5025,16 @@
         <v>1969</v>
       </c>
       <c r="U53">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="X53">
         <v>1403</v>
       </c>
       <c r="Y53">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Z53">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="AC53">
         <v>2166</v>
@@ -5049,7 +5052,7 @@
         <v>107</v>
       </c>
       <c r="AI53">
-        <v>28123</v>
+        <v>28115</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -5069,13 +5072,13 @@
         <v>3064</v>
       </c>
       <c r="F54">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G54">
-        <v>3277</v>
+        <v>3273</v>
       </c>
       <c r="H54">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="K54">
         <v>54</v>
@@ -5087,31 +5090,31 @@
         <v>260</v>
       </c>
       <c r="N54">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Q54">
         <v>157</v>
       </c>
       <c r="R54">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S54">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T54">
         <v>1925</v>
       </c>
       <c r="U54">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="X54">
         <v>1328</v>
       </c>
       <c r="Y54">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z54">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="AC54">
         <v>2133</v>
@@ -5129,7 +5132,7 @@
         <v>101</v>
       </c>
       <c r="AI54">
-        <v>27882</v>
+        <v>27879</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -5152,10 +5155,10 @@
         <v>333</v>
       </c>
       <c r="G55">
-        <v>3202</v>
+        <v>3208</v>
       </c>
       <c r="H55">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K55">
         <v>59</v>
@@ -5167,7 +5170,7 @@
         <v>257</v>
       </c>
       <c r="N55">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="Q55">
         <v>167</v>
@@ -5182,7 +5185,7 @@
         <v>1900</v>
       </c>
       <c r="U55">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="X55">
         <v>1271</v>
@@ -5191,7 +5194,7 @@
         <v>817</v>
       </c>
       <c r="Z55">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="AC55">
         <v>2112</v>
@@ -5203,13 +5206,13 @@
         <v>1355</v>
       </c>
       <c r="AG55">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="AH55">
         <v>99</v>
       </c>
       <c r="AI55">
-        <v>27706</v>
+        <v>27710</v>
       </c>
     </row>
     <row r="56" spans="1:35">
@@ -5232,13 +5235,13 @@
         <v>324</v>
       </c>
       <c r="G56">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="H56">
         <v>1283</v>
       </c>
       <c r="K56">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L56">
         <v>164</v>
@@ -5247,7 +5250,7 @@
         <v>251</v>
       </c>
       <c r="N56">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="Q56">
         <v>180</v>
@@ -5271,7 +5274,7 @@
         <v>840</v>
       </c>
       <c r="Z56">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="AC56">
         <v>2124</v>
@@ -5280,7 +5283,7 @@
         <v>3123</v>
       </c>
       <c r="AE56">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AG56">
         <v>2006</v>
@@ -5289,7 +5292,7 @@
         <v>91</v>
       </c>
       <c r="AI56">
-        <v>28025</v>
+        <v>28021</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -5306,16 +5309,16 @@
         <v>3624</v>
       </c>
       <c r="E57">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="F57">
         <v>351</v>
       </c>
       <c r="G57">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="H57">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K57">
         <v>75</v>
@@ -5327,13 +5330,13 @@
         <v>280</v>
       </c>
       <c r="N57">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Q57">
         <v>189</v>
       </c>
       <c r="R57">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S57">
         <v>676</v>
@@ -5351,13 +5354,13 @@
         <v>864</v>
       </c>
       <c r="Z57">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="AC57">
         <v>2171</v>
       </c>
       <c r="AD57">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="AE57">
         <v>1412</v>
@@ -5369,7 +5372,7 @@
         <v>105</v>
       </c>
       <c r="AI57">
-        <v>28382</v>
+        <v>28376</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -5377,22 +5380,22 @@
         <v>91</v>
       </c>
       <c r="B58">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C58">
         <v>124</v>
       </c>
       <c r="D58">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="E58">
         <v>3176</v>
       </c>
       <c r="F58">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G58">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="H58">
         <v>1252</v>
@@ -5404,10 +5407,10 @@
         <v>150</v>
       </c>
       <c r="M58">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N58">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Q58">
         <v>174</v>
@@ -5419,7 +5422,7 @@
         <v>670</v>
       </c>
       <c r="T58">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="U58">
         <v>2667</v>
@@ -5431,7 +5434,7 @@
         <v>925</v>
       </c>
       <c r="Z58">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="AC58">
         <v>2187</v>
@@ -5449,7 +5452,7 @@
         <v>111</v>
       </c>
       <c r="AI58">
-        <v>28474</v>
+        <v>28471</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -5469,10 +5472,10 @@
         <v>3245</v>
       </c>
       <c r="F59">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G59">
-        <v>3328</v>
+        <v>3333</v>
       </c>
       <c r="H59">
         <v>1325</v>
@@ -5487,7 +5490,7 @@
         <v>250</v>
       </c>
       <c r="N59">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="Q59">
         <v>178</v>
@@ -5502,7 +5505,7 @@
         <v>1857</v>
       </c>
       <c r="U59">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="X59">
         <v>1375</v>
@@ -5511,13 +5514,13 @@
         <v>955</v>
       </c>
       <c r="Z59">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="AC59">
         <v>2134</v>
       </c>
       <c r="AD59">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="AE59">
         <v>1410</v>
@@ -5529,7 +5532,7 @@
         <v>151</v>
       </c>
       <c r="AI59">
-        <v>29439</v>
+        <v>29443</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -5552,7 +5555,7 @@
         <v>390</v>
       </c>
       <c r="G60">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="H60">
         <v>1288</v>
@@ -5561,13 +5564,13 @@
         <v>77</v>
       </c>
       <c r="L60">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M60">
         <v>293</v>
       </c>
       <c r="N60">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="Q60">
         <v>186</v>
@@ -5579,7 +5582,7 @@
         <v>682</v>
       </c>
       <c r="T60">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="U60">
         <v>2948</v>
@@ -5591,7 +5594,7 @@
         <v>967</v>
       </c>
       <c r="Z60">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="AC60">
         <v>2199</v>
@@ -5603,13 +5606,13 @@
         <v>1405</v>
       </c>
       <c r="AG60">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AH60">
         <v>138</v>
       </c>
       <c r="AI60">
-        <v>30136</v>
+        <v>30132</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -5620,10 +5623,10 @@
         <v>1002</v>
       </c>
       <c r="C61">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E61">
         <v>3184</v>
@@ -5632,10 +5635,10 @@
         <v>387</v>
       </c>
       <c r="G61">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="H61">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="K61">
         <v>81</v>
@@ -5647,7 +5650,7 @@
         <v>283</v>
       </c>
       <c r="N61">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="Q61">
         <v>195</v>
@@ -5662,7 +5665,7 @@
         <v>1963</v>
       </c>
       <c r="U61">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="X61">
         <v>1437</v>
@@ -5677,7 +5680,7 @@
         <v>2240</v>
       </c>
       <c r="AD61">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="AE61">
         <v>1429</v>
@@ -5689,7 +5692,7 @@
         <v>131</v>
       </c>
       <c r="AI61">
-        <v>30516</v>
+        <v>30510</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -5703,16 +5706,16 @@
         <v>139</v>
       </c>
       <c r="D62">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E62">
         <v>3036</v>
       </c>
       <c r="F62">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G62">
-        <v>3579</v>
+        <v>3574</v>
       </c>
       <c r="H62">
         <v>1374</v>
@@ -5724,16 +5727,16 @@
         <v>189</v>
       </c>
       <c r="M62">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N62">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="Q62">
         <v>220</v>
       </c>
       <c r="R62">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S62">
         <v>738</v>
@@ -5742,7 +5745,7 @@
         <v>1973</v>
       </c>
       <c r="U62">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="X62">
         <v>1470</v>
@@ -5751,7 +5754,7 @@
         <v>993</v>
       </c>
       <c r="Z62">
-        <v>4767</v>
+        <v>4768</v>
       </c>
       <c r="AC62">
         <v>2279</v>
@@ -5769,7 +5772,7 @@
         <v>128</v>
       </c>
       <c r="AI62">
-        <v>30896</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -5789,13 +5792,13 @@
         <v>3050</v>
       </c>
       <c r="F63">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G63">
-        <v>3622</v>
+        <v>3630</v>
       </c>
       <c r="H63">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K63">
         <v>82</v>
@@ -5804,13 +5807,13 @@
         <v>191</v>
       </c>
       <c r="M63">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N63">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="Q63">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R63">
         <v>628</v>
@@ -5822,7 +5825,7 @@
         <v>1988</v>
       </c>
       <c r="U63">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="X63">
         <v>1502</v>
@@ -5831,7 +5834,7 @@
         <v>997</v>
       </c>
       <c r="Z63">
-        <v>4851</v>
+        <v>4852</v>
       </c>
       <c r="AC63">
         <v>2287</v>
@@ -5846,10 +5849,10 @@
         <v>2432</v>
       </c>
       <c r="AH63">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AI63">
-        <v>31315</v>
+        <v>31321</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -5872,7 +5875,7 @@
         <v>409</v>
       </c>
       <c r="G64">
-        <v>3660</v>
+        <v>3657</v>
       </c>
       <c r="H64">
         <v>1461</v>
@@ -5887,7 +5890,7 @@
         <v>288</v>
       </c>
       <c r="N64">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="Q64">
         <v>208</v>
@@ -5899,7 +5902,7 @@
         <v>777</v>
       </c>
       <c r="T64">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="U64">
         <v>3229</v>
@@ -5923,13 +5926,13 @@
         <v>1453</v>
       </c>
       <c r="AG64">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="AH64">
         <v>159</v>
       </c>
       <c r="AI64">
-        <v>31441</v>
+        <v>31435</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -5943,19 +5946,19 @@
         <v>163</v>
       </c>
       <c r="D65">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="E65">
         <v>3120</v>
       </c>
       <c r="F65">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G65">
-        <v>3631</v>
+        <v>3628</v>
       </c>
       <c r="H65">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="K65">
         <v>80</v>
@@ -5964,16 +5967,16 @@
         <v>198</v>
       </c>
       <c r="M65">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N65">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="Q65">
         <v>208</v>
       </c>
       <c r="R65">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S65">
         <v>807</v>
@@ -5982,7 +5985,7 @@
         <v>2006</v>
       </c>
       <c r="U65">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="X65">
         <v>1497</v>
@@ -5991,7 +5994,7 @@
         <v>1010</v>
       </c>
       <c r="Z65">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="AC65">
         <v>2297</v>
@@ -6009,7 +6012,7 @@
         <v>154</v>
       </c>
       <c r="AI65">
-        <v>32051</v>
+        <v>32045</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -6023,7 +6026,7 @@
         <v>162</v>
       </c>
       <c r="D66">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="E66">
         <v>3130</v>
@@ -6032,7 +6035,7 @@
         <v>418</v>
       </c>
       <c r="G66">
-        <v>3739</v>
+        <v>3735</v>
       </c>
       <c r="H66">
         <v>1491</v>
@@ -6047,25 +6050,25 @@
         <v>292</v>
       </c>
       <c r="N66">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="Q66">
         <v>212</v>
       </c>
       <c r="R66">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S66">
         <v>834</v>
       </c>
       <c r="T66">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="U66">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="X66">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="Y66">
         <v>1043</v>
@@ -6083,13 +6086,13 @@
         <v>1469</v>
       </c>
       <c r="AG66">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="AH66">
         <v>155</v>
       </c>
       <c r="AI66">
-        <v>32603</v>
+        <v>32597</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -6112,7 +6115,7 @@
         <v>415</v>
       </c>
       <c r="G67">
-        <v>3764</v>
+        <v>3773</v>
       </c>
       <c r="H67">
         <v>1506</v>
@@ -6127,10 +6130,10 @@
         <v>280</v>
       </c>
       <c r="N67">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="Q67">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R67">
         <v>686</v>
@@ -6151,7 +6154,7 @@
         <v>1058</v>
       </c>
       <c r="Z67">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="AC67">
         <v>2357</v>
@@ -6169,7 +6172,7 @@
         <v>170</v>
       </c>
       <c r="AI67">
-        <v>33081</v>
+        <v>33089</v>
       </c>
     </row>
     <row r="68" spans="1:35">
@@ -6183,7 +6186,7 @@
         <v>187</v>
       </c>
       <c r="D68">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="E68">
         <v>3135</v>
@@ -6192,7 +6195,7 @@
         <v>406</v>
       </c>
       <c r="G68">
-        <v>3798</v>
+        <v>3793</v>
       </c>
       <c r="H68">
         <v>1556</v>
@@ -6207,7 +6210,7 @@
         <v>284</v>
       </c>
       <c r="N68">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="Q68">
         <v>208</v>
@@ -6219,10 +6222,10 @@
         <v>858</v>
       </c>
       <c r="T68">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="U68">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="X68">
         <v>1588</v>
@@ -6231,7 +6234,7 @@
         <v>1059</v>
       </c>
       <c r="Z68">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="AC68">
         <v>2368</v>
@@ -6246,10 +6249,10 @@
         <v>2674</v>
       </c>
       <c r="AH68">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI68">
-        <v>33300</v>
+        <v>33294</v>
       </c>
     </row>
     <row r="69" spans="1:35">
@@ -6257,7 +6260,7 @@
         <v>102</v>
       </c>
       <c r="B69">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C69">
         <v>205</v>
@@ -6272,7 +6275,7 @@
         <v>410</v>
       </c>
       <c r="G69">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="H69">
         <v>1498</v>
@@ -6287,7 +6290,7 @@
         <v>299</v>
       </c>
       <c r="N69">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="Q69">
         <v>206</v>
@@ -6302,7 +6305,7 @@
         <v>2171</v>
       </c>
       <c r="U69">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="X69">
         <v>1578</v>
@@ -6311,7 +6314,7 @@
         <v>1059</v>
       </c>
       <c r="Z69">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="AC69">
         <v>2383</v>
@@ -6323,13 +6326,13 @@
         <v>1500</v>
       </c>
       <c r="AG69">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="AH69">
         <v>158</v>
       </c>
       <c r="AI69">
-        <v>33541</v>
+        <v>33533</v>
       </c>
     </row>
     <row r="70" spans="1:35">
@@ -6343,22 +6346,22 @@
         <v>148</v>
       </c>
       <c r="D70">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="E70">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="F70">
         <v>431</v>
       </c>
       <c r="G70">
-        <v>3804</v>
+        <v>3799</v>
       </c>
       <c r="H70">
         <v>1516</v>
       </c>
       <c r="I70">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J70">
         <v>508</v>
@@ -6373,10 +6376,10 @@
         <v>287</v>
       </c>
       <c r="N70">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="O70">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P70">
         <v>532</v>
@@ -6385,7 +6388,7 @@
         <v>224</v>
       </c>
       <c r="R70">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S70">
         <v>905</v>
@@ -6397,10 +6400,10 @@
         <v>3654</v>
       </c>
       <c r="V70">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="W70">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="X70">
         <v>1609</v>
@@ -6409,16 +6412,16 @@
         <v>1059</v>
       </c>
       <c r="Z70">
-        <v>5320</v>
+        <v>5321</v>
       </c>
       <c r="AA70">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="AB70">
         <v>3634</v>
       </c>
       <c r="AC70">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="AD70">
         <v>3720</v>
@@ -6427,16 +6430,16 @@
         <v>1538</v>
       </c>
       <c r="AF70">
-        <v>31067</v>
+        <v>31061</v>
       </c>
       <c r="AG70">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AH70">
         <v>170</v>
       </c>
       <c r="AI70">
-        <v>33929</v>
+        <v>33924</v>
       </c>
     </row>
     <row r="71" spans="1:35">
@@ -6456,40 +6459,40 @@
         <v>3280</v>
       </c>
       <c r="F71">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G71">
-        <v>3874</v>
+        <v>3885</v>
       </c>
       <c r="H71">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I71">
         <v>1011</v>
       </c>
       <c r="J71">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K71">
         <v>96</v>
       </c>
       <c r="L71">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M71">
         <v>309</v>
       </c>
       <c r="N71">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="O71">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="P71">
         <v>540</v>
       </c>
       <c r="Q71">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R71">
         <v>674</v>
@@ -6498,10 +6501,10 @@
         <v>863</v>
       </c>
       <c r="T71">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="U71">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="V71">
         <v>3149</v>
@@ -6516,13 +6519,13 @@
         <v>1077</v>
       </c>
       <c r="Z71">
-        <v>5413</v>
+        <v>5414</v>
       </c>
       <c r="AA71">
         <v>1711</v>
       </c>
       <c r="AB71">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="AC71">
         <v>2451</v>
@@ -6534,16 +6537,16 @@
         <v>1543</v>
       </c>
       <c r="AF71">
-        <v>31539</v>
+        <v>31550</v>
       </c>
       <c r="AG71">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="AH71">
         <v>153</v>
       </c>
       <c r="AI71">
-        <v>34436</v>
+        <v>34448</v>
       </c>
     </row>
     <row r="72" spans="1:35">
@@ -6557,16 +6560,16 @@
         <v>151</v>
       </c>
       <c r="D72">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="E72">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="F72">
         <v>418</v>
       </c>
       <c r="G72">
-        <v>3888</v>
+        <v>3883</v>
       </c>
       <c r="H72">
         <v>1523</v>
@@ -6587,10 +6590,10 @@
         <v>313</v>
       </c>
       <c r="N72">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="O72">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P72">
         <v>560</v>
@@ -6605,10 +6608,10 @@
         <v>887</v>
       </c>
       <c r="T72">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="U72">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="V72">
         <v>3163</v>
@@ -6620,13 +6623,13 @@
         <v>1627</v>
       </c>
       <c r="Y72">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Z72">
-        <v>5425</v>
+        <v>5424</v>
       </c>
       <c r="AA72">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="AB72">
         <v>3675</v>
@@ -6641,7 +6644,7 @@
         <v>1549</v>
       </c>
       <c r="AF72">
-        <v>31786</v>
+        <v>31779</v>
       </c>
       <c r="AG72">
         <v>2791</v>
@@ -6650,7 +6653,7 @@
         <v>172</v>
       </c>
       <c r="AI72">
-        <v>34750</v>
+        <v>34742</v>
       </c>
     </row>
     <row r="73" spans="1:35">
@@ -6673,19 +6676,19 @@
         <v>400</v>
       </c>
       <c r="G73">
-        <v>3792</v>
+        <v>3788</v>
       </c>
       <c r="H73">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I73">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J73">
         <v>492</v>
       </c>
       <c r="K73">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L73">
         <v>196</v>
@@ -6694,10 +6697,10 @@
         <v>306</v>
       </c>
       <c r="N73">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="O73">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P73">
         <v>573</v>
@@ -6712,31 +6715,31 @@
         <v>890</v>
       </c>
       <c r="T73">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="U73">
-        <v>3844</v>
+        <v>3842</v>
       </c>
       <c r="V73">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="W73">
         <v>642</v>
       </c>
       <c r="X73">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="Y73">
         <v>1088</v>
       </c>
       <c r="Z73">
-        <v>5467</v>
+        <v>5466</v>
       </c>
       <c r="AA73">
         <v>1750</v>
       </c>
       <c r="AB73">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="AC73">
         <v>2484</v>
@@ -6748,16 +6751,16 @@
         <v>1557</v>
       </c>
       <c r="AF73">
-        <v>31857</v>
+        <v>31850</v>
       </c>
       <c r="AG73">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="AH73">
         <v>156</v>
       </c>
       <c r="AI73">
-        <v>34824</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="74" spans="1:35">
@@ -6768,28 +6771,28 @@
         <v>952</v>
       </c>
       <c r="C74">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="E74">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="F74">
         <v>397</v>
       </c>
       <c r="G74">
-        <v>3799</v>
+        <v>3793</v>
       </c>
       <c r="H74">
         <v>1477</v>
       </c>
       <c r="I74">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J74">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K74">
         <v>84</v>
@@ -6801,10 +6804,10 @@
         <v>312</v>
       </c>
       <c r="N74">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="O74">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P74">
         <v>583</v>
@@ -6819,7 +6822,7 @@
         <v>877</v>
       </c>
       <c r="T74">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="U74">
         <v>3835</v>
@@ -6834,7 +6837,7 @@
         <v>1638</v>
       </c>
       <c r="Y74">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Z74">
         <v>5532</v>
@@ -6843,7 +6846,7 @@
         <v>1769</v>
       </c>
       <c r="AB74">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="AC74">
         <v>2503</v>
@@ -6855,16 +6858,16 @@
         <v>1580</v>
       </c>
       <c r="AF74">
-        <v>31912</v>
+        <v>31908</v>
       </c>
       <c r="AG74">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="AH74">
         <v>169</v>
       </c>
       <c r="AI74">
-        <v>34873</v>
+        <v>34867</v>
       </c>
     </row>
     <row r="75" spans="1:35">
@@ -6872,31 +6875,31 @@
         <v>108</v>
       </c>
       <c r="B75">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C75">
         <v>205</v>
       </c>
       <c r="D75">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="E75">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="F75">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G75">
-        <v>3838</v>
+        <v>3849</v>
       </c>
       <c r="H75">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I75">
         <v>1023</v>
       </c>
       <c r="J75">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K75">
         <v>86</v>
@@ -6908,16 +6911,16 @@
         <v>311</v>
       </c>
       <c r="N75">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="O75">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="P75">
         <v>587</v>
       </c>
       <c r="Q75">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R75">
         <v>620</v>
@@ -6926,13 +6929,13 @@
         <v>924</v>
       </c>
       <c r="T75">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="U75">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="V75">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="W75">
         <v>659</v>
@@ -6944,34 +6947,34 @@
         <v>1097</v>
       </c>
       <c r="Z75">
-        <v>5480</v>
+        <v>5482</v>
       </c>
       <c r="AA75">
         <v>1768</v>
       </c>
       <c r="AB75">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="AC75">
         <v>2529</v>
       </c>
       <c r="AD75">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="AE75">
         <v>1577</v>
       </c>
       <c r="AF75">
-        <v>32081</v>
+        <v>32092</v>
       </c>
       <c r="AG75">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="AH75">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI75">
-        <v>35017</v>
+        <v>35031</v>
       </c>
     </row>
     <row r="76" spans="1:35">
@@ -6985,22 +6988,22 @@
         <v>195</v>
       </c>
       <c r="D76">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="E76">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="F76">
         <v>421</v>
       </c>
       <c r="G76">
-        <v>3785</v>
+        <v>3780</v>
       </c>
       <c r="H76">
         <v>1482</v>
       </c>
       <c r="I76">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J76">
         <v>482</v>
@@ -7009,25 +7012,25 @@
         <v>84</v>
       </c>
       <c r="L76">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M76">
         <v>303</v>
       </c>
       <c r="N76">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="O76">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P76">
         <v>571</v>
       </c>
       <c r="Q76">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R76">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S76">
         <v>923</v>
@@ -7036,10 +7039,10 @@
         <v>2178</v>
       </c>
       <c r="U76">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="V76">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="W76">
         <v>666</v>
@@ -7048,37 +7051,37 @@
         <v>1684</v>
       </c>
       <c r="Y76">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Z76">
-        <v>5465</v>
+        <v>5463</v>
       </c>
       <c r="AA76">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AB76">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="AC76">
         <v>2581</v>
       </c>
       <c r="AD76">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="AE76">
         <v>1587</v>
       </c>
       <c r="AF76">
-        <v>32064</v>
+        <v>32054</v>
       </c>
       <c r="AG76">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="AH76">
         <v>149</v>
       </c>
       <c r="AI76">
-        <v>35013</v>
+        <v>35002</v>
       </c>
     </row>
     <row r="77" spans="1:35">
@@ -7101,7 +7104,7 @@
         <v>428</v>
       </c>
       <c r="G77">
-        <v>3797</v>
+        <v>3793</v>
       </c>
       <c r="H77">
         <v>1500</v>
@@ -7122,10 +7125,10 @@
         <v>302</v>
       </c>
       <c r="N77">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="O77">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P77">
         <v>587</v>
@@ -7137,55 +7140,55 @@
         <v>615</v>
       </c>
       <c r="S77">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="T77">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="U77">
-        <v>3891</v>
+        <v>3888</v>
       </c>
       <c r="V77">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="W77">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="X77">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="Y77">
         <v>1132</v>
       </c>
       <c r="Z77">
-        <v>5473</v>
+        <v>5472</v>
       </c>
       <c r="AA77">
         <v>1803</v>
       </c>
       <c r="AB77">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="AC77">
         <v>2605</v>
       </c>
       <c r="AD77">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="AE77">
         <v>1612</v>
       </c>
       <c r="AF77">
-        <v>32418</v>
+        <v>32411</v>
       </c>
       <c r="AG77">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AH77">
         <v>155</v>
       </c>
       <c r="AI77">
-        <v>35415</v>
+        <v>35406</v>
       </c>
     </row>
     <row r="78" spans="1:35">
@@ -7196,25 +7199,25 @@
         <v>1049</v>
       </c>
       <c r="C78">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D78">
-        <v>3941</v>
+        <v>3943</v>
       </c>
       <c r="E78">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="F78">
         <v>409</v>
       </c>
       <c r="G78">
-        <v>3759</v>
+        <v>3753</v>
       </c>
       <c r="H78">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I78">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J78">
         <v>501</v>
@@ -7226,28 +7229,28 @@
         <v>208</v>
       </c>
       <c r="M78">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N78">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="O78">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P78">
         <v>574</v>
       </c>
       <c r="Q78">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R78">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S78">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="T78">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="U78">
         <v>3945</v>
@@ -7268,31 +7271,31 @@
         <v>5503</v>
       </c>
       <c r="AA78">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="AB78">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="AC78">
         <v>2617</v>
       </c>
       <c r="AD78">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="AE78">
         <v>1618</v>
       </c>
       <c r="AF78">
-        <v>32508</v>
+        <v>32505</v>
       </c>
       <c r="AG78">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="AH78">
         <v>163</v>
       </c>
       <c r="AI78">
-        <v>35505</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="79" spans="1:35">
@@ -7300,31 +7303,31 @@
         <v>112</v>
       </c>
       <c r="B79">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C79">
         <v>184</v>
       </c>
       <c r="D79">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E79">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="F79">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G79">
-        <v>3847</v>
+        <v>3857</v>
       </c>
       <c r="H79">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="I79">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J79">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K79">
         <v>93</v>
@@ -7336,13 +7339,13 @@
         <v>302</v>
       </c>
       <c r="N79">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="O79">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="P79">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q79">
         <v>207</v>
@@ -7351,19 +7354,19 @@
         <v>621</v>
       </c>
       <c r="S79">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T79">
         <v>2324</v>
       </c>
       <c r="U79">
-        <v>3959</v>
+        <v>3962</v>
       </c>
       <c r="V79">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="W79">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="X79">
         <v>1760</v>
@@ -7372,34 +7375,34 @@
         <v>1153</v>
       </c>
       <c r="Z79">
-        <v>5543</v>
+        <v>5546</v>
       </c>
       <c r="AA79">
         <v>1843</v>
       </c>
       <c r="AB79">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="AC79">
         <v>2628</v>
       </c>
       <c r="AD79">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="AE79">
         <v>1642</v>
       </c>
       <c r="AF79">
-        <v>32934</v>
+        <v>32946</v>
       </c>
       <c r="AG79">
-        <v>2860</v>
+        <v>2866</v>
       </c>
       <c r="AH79">
         <v>153</v>
       </c>
       <c r="AI79">
-        <v>35948</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="80" spans="1:35">
@@ -7410,19 +7413,19 @@
         <v>1065</v>
       </c>
       <c r="C80">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D80">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="E80">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F80">
         <v>395</v>
       </c>
       <c r="G80">
-        <v>3803</v>
+        <v>3799</v>
       </c>
       <c r="H80">
         <v>1541</v>
@@ -7443,16 +7446,16 @@
         <v>294</v>
       </c>
       <c r="N80">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="O80">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P80">
         <v>554</v>
       </c>
       <c r="Q80">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R80">
         <v>634</v>
@@ -7461,13 +7464,13 @@
         <v>982</v>
       </c>
       <c r="T80">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="U80">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="V80">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="W80">
         <v>693</v>
@@ -7476,37 +7479,37 @@
         <v>1765</v>
       </c>
       <c r="Y80">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Z80">
-        <v>5593</v>
+        <v>5591</v>
       </c>
       <c r="AA80">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="AB80">
         <v>3738</v>
       </c>
       <c r="AC80">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AD80">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="AE80">
         <v>1662</v>
       </c>
       <c r="AF80">
-        <v>32790</v>
+        <v>32779</v>
       </c>
       <c r="AG80">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="AH80">
         <v>153</v>
       </c>
       <c r="AI80">
-        <v>35843</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="81" spans="1:35">
@@ -7529,19 +7532,19 @@
         <v>416</v>
       </c>
       <c r="G81">
-        <v>3816</v>
+        <v>3812</v>
       </c>
       <c r="H81">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="I81">
         <v>995</v>
       </c>
       <c r="J81">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K81">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L81">
         <v>200</v>
@@ -7550,70 +7553,70 @@
         <v>300</v>
       </c>
       <c r="N81">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="O81">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P81">
         <v>545</v>
       </c>
       <c r="Q81">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R81">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="S81">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="T81">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="U81">
-        <v>3949</v>
+        <v>3945</v>
       </c>
       <c r="V81">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="W81">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="X81">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="Y81">
         <v>1195</v>
       </c>
       <c r="Z81">
-        <v>5599</v>
+        <v>5597</v>
       </c>
       <c r="AA81">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="AB81">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="AC81">
         <v>2652</v>
       </c>
       <c r="AD81">
-        <v>4063</v>
+        <v>4065</v>
       </c>
       <c r="AE81">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="AF81">
-        <v>33113</v>
+        <v>33105</v>
       </c>
       <c r="AG81">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="AH81">
         <v>165</v>
       </c>
       <c r="AI81">
-        <v>36192</v>
+        <v>36180</v>
       </c>
     </row>
     <row r="82" spans="1:35">
@@ -7627,61 +7630,61 @@
         <v>167</v>
       </c>
       <c r="D82">
-        <v>3914</v>
+        <v>3918</v>
       </c>
       <c r="E82">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="F82">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G82">
-        <v>3799</v>
+        <v>3793</v>
       </c>
       <c r="H82">
         <v>1502</v>
       </c>
       <c r="I82">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J82">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K82">
         <v>88</v>
       </c>
       <c r="L82">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M82">
         <v>302</v>
       </c>
       <c r="N82">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="O82">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P82">
         <v>569</v>
       </c>
       <c r="Q82">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R82">
         <v>616</v>
       </c>
       <c r="S82">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="T82">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="U82">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="V82">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="W82">
         <v>699</v>
@@ -7693,13 +7696,13 @@
         <v>1203</v>
       </c>
       <c r="Z82">
-        <v>5604</v>
+        <v>5605</v>
       </c>
       <c r="AA82">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="AB82">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="AC82">
         <v>2644</v>
@@ -7711,16 +7714,16 @@
         <v>1698</v>
       </c>
       <c r="AF82">
-        <v>33374</v>
+        <v>33372</v>
       </c>
       <c r="AG82">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="AH82">
         <v>141</v>
       </c>
       <c r="AI82">
-        <v>36424</v>
+        <v>36418</v>
       </c>
     </row>
     <row r="83" spans="1:35">
@@ -7734,25 +7737,25 @@
         <v>178</v>
       </c>
       <c r="D83">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="E83">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="F83">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G83">
-        <v>3718</v>
+        <v>3730</v>
       </c>
       <c r="H83">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I83">
         <v>955</v>
       </c>
       <c r="J83">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K83">
         <v>90</v>
@@ -7764,70 +7767,70 @@
         <v>289</v>
       </c>
       <c r="N83">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="O83">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P83">
         <v>553</v>
       </c>
       <c r="Q83">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R83">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S83">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="T83">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="U83">
-        <v>3961</v>
+        <v>3966</v>
       </c>
       <c r="V83">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="W83">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X83">
         <v>1813</v>
       </c>
       <c r="Y83">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Z83">
-        <v>5584</v>
+        <v>5587</v>
       </c>
       <c r="AA83">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="AB83">
-        <v>3672</v>
+        <v>3677</v>
       </c>
       <c r="AC83">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="AD83">
-        <v>4200</v>
+        <v>4197</v>
       </c>
       <c r="AE83">
         <v>1702</v>
       </c>
       <c r="AF83">
-        <v>33264</v>
+        <v>33279</v>
       </c>
       <c r="AG83">
-        <v>2912</v>
+        <v>2919</v>
       </c>
       <c r="AH83">
         <v>144</v>
       </c>
       <c r="AI83">
-        <v>36320</v>
+        <v>36341</v>
       </c>
     </row>
     <row r="84" spans="1:35">
@@ -7841,16 +7844,16 @@
         <v>154</v>
       </c>
       <c r="D84">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="E84">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F84">
         <v>406</v>
       </c>
       <c r="G84">
-        <v>3735</v>
+        <v>3729</v>
       </c>
       <c r="H84">
         <v>1453</v>
@@ -7865,37 +7868,37 @@
         <v>95</v>
       </c>
       <c r="L84">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M84">
         <v>297</v>
       </c>
       <c r="N84">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="O84">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P84">
         <v>554</v>
       </c>
       <c r="Q84">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R84">
         <v>619</v>
       </c>
       <c r="S84">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="T84">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="U84">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="V84">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="W84">
         <v>711</v>
@@ -7904,13 +7907,13 @@
         <v>1839</v>
       </c>
       <c r="Y84">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Z84">
-        <v>5572</v>
+        <v>5569</v>
       </c>
       <c r="AA84">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="AB84">
         <v>3661</v>
@@ -7919,22 +7922,22 @@
         <v>2674</v>
       </c>
       <c r="AD84">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="AE84">
         <v>1710</v>
       </c>
       <c r="AF84">
-        <v>33363</v>
+        <v>33346</v>
       </c>
       <c r="AG84">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="AH84">
         <v>177</v>
       </c>
       <c r="AI84">
-        <v>36492</v>
+        <v>36473</v>
       </c>
     </row>
     <row r="85" spans="1:35">
@@ -7942,31 +7945,31 @@
         <v>118</v>
       </c>
       <c r="B85">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C85">
         <v>163</v>
       </c>
       <c r="D85">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="E85">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="F85">
         <v>403</v>
       </c>
       <c r="G85">
-        <v>3788</v>
+        <v>3785</v>
       </c>
       <c r="H85">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="I85">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J85">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K85">
         <v>97</v>
@@ -7978,10 +7981,10 @@
         <v>304</v>
       </c>
       <c r="N85">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="O85">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P85">
         <v>561</v>
@@ -7993,55 +7996,55 @@
         <v>624</v>
       </c>
       <c r="S85">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="T85">
         <v>2392</v>
       </c>
       <c r="U85">
-        <v>4055</v>
+        <v>4050</v>
       </c>
       <c r="V85">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="W85">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="X85">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="Y85">
         <v>1223</v>
       </c>
       <c r="Z85">
-        <v>5544</v>
+        <v>5542</v>
       </c>
       <c r="AA85">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="AB85">
-        <v>3645</v>
+        <v>3642</v>
       </c>
       <c r="AC85">
         <v>2691</v>
       </c>
       <c r="AD85">
-        <v>4240</v>
+        <v>4243</v>
       </c>
       <c r="AE85">
         <v>1714</v>
       </c>
       <c r="AF85">
-        <v>33419</v>
+        <v>33413</v>
       </c>
       <c r="AG85">
-        <v>2977</v>
+        <v>2972</v>
       </c>
       <c r="AH85">
         <v>181</v>
       </c>
       <c r="AI85">
-        <v>36580</v>
+        <v>36569</v>
       </c>
     </row>
     <row r="86" spans="1:35">
@@ -8052,28 +8055,28 @@
         <v>1055</v>
       </c>
       <c r="C86">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86">
-        <v>3378</v>
+        <v>3382</v>
       </c>
       <c r="E86">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="F86">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G86">
-        <v>3749</v>
+        <v>3743</v>
       </c>
       <c r="H86">
         <v>1485</v>
       </c>
       <c r="I86">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="J86">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K86">
         <v>95</v>
@@ -8085,28 +8088,28 @@
         <v>291</v>
       </c>
       <c r="N86">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="O86">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P86">
         <v>539</v>
       </c>
       <c r="Q86">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R86">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S86">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="T86">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="U86">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="V86">
         <v>3375</v>
@@ -8121,34 +8124,34 @@
         <v>1223</v>
       </c>
       <c r="Z86">
-        <v>5429</v>
+        <v>5430</v>
       </c>
       <c r="AA86">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="AB86">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="AC86">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="AD86">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="AE86">
         <v>1721</v>
       </c>
       <c r="AF86">
-        <v>33088</v>
+        <v>33090</v>
       </c>
       <c r="AG86">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="AH86">
         <v>175</v>
       </c>
       <c r="AI86">
-        <v>36270</v>
+        <v>36268</v>
       </c>
     </row>
     <row r="87" spans="1:35">
@@ -8156,106 +8159,106 @@
         <v>120</v>
       </c>
       <c r="B87">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C87">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D87">
-        <v>3677</v>
+        <v>3673</v>
       </c>
       <c r="E87">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="F87">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G87">
-        <v>3777</v>
+        <v>3787</v>
       </c>
       <c r="H87">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="I87">
         <v>1025</v>
       </c>
       <c r="J87">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K87">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L87">
         <v>204</v>
       </c>
       <c r="M87">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N87">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="O87">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="P87">
         <v>551</v>
       </c>
       <c r="Q87">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R87">
         <v>632</v>
       </c>
       <c r="S87">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="T87">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="U87">
-        <v>4146</v>
+        <v>4154</v>
       </c>
       <c r="V87">
-        <v>3439</v>
+        <v>3445</v>
       </c>
       <c r="W87">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="X87">
         <v>1839</v>
       </c>
       <c r="Y87">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Z87">
-        <v>5460</v>
+        <v>5465</v>
       </c>
       <c r="AA87">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="AB87">
-        <v>3580</v>
+        <v>3586</v>
       </c>
       <c r="AC87">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="AD87">
-        <v>4279</v>
+        <v>4275</v>
       </c>
       <c r="AE87">
         <v>1733</v>
       </c>
       <c r="AF87">
-        <v>33454</v>
+        <v>33467</v>
       </c>
       <c r="AG87">
-        <v>3009</v>
+        <v>3019</v>
       </c>
       <c r="AH87">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI87">
-        <v>36624</v>
+        <v>36646</v>
       </c>
     </row>
     <row r="88" spans="1:35">
@@ -8269,25 +8272,25 @@
         <v>204</v>
       </c>
       <c r="D88">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="E88">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="F88">
         <v>390</v>
       </c>
       <c r="G88">
-        <v>3870</v>
+        <v>3864</v>
       </c>
       <c r="H88">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I88">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="J88">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K88">
         <v>93</v>
@@ -8299,31 +8302,31 @@
         <v>303</v>
       </c>
       <c r="N88">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="O88">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P88">
         <v>549</v>
       </c>
       <c r="Q88">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R88">
         <v>658</v>
       </c>
       <c r="S88">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="T88">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="U88">
-        <v>4163</v>
+        <v>4159</v>
       </c>
       <c r="V88">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="W88">
         <v>728</v>
@@ -8332,37 +8335,37 @@
         <v>1888</v>
       </c>
       <c r="Y88">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Z88">
-        <v>5592</v>
+        <v>5588</v>
       </c>
       <c r="AA88">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="AB88">
         <v>3647</v>
       </c>
       <c r="AC88">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AD88">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="AE88">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="AF88">
-        <v>34103</v>
+        <v>34080</v>
       </c>
       <c r="AG88">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="AH88">
         <v>164</v>
       </c>
       <c r="AI88">
-        <v>37325</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="89" spans="1:35">
@@ -8376,25 +8379,25 @@
         <v>195</v>
       </c>
       <c r="D89">
+        <v>3909</v>
+      </c>
+      <c r="E89">
+        <v>3534</v>
+      </c>
+      <c r="F89">
+        <v>382</v>
+      </c>
+      <c r="G89">
         <v>3908</v>
       </c>
-      <c r="E89">
-        <v>3533</v>
-      </c>
-      <c r="F89">
-        <v>381</v>
-      </c>
-      <c r="G89">
-        <v>3911</v>
-      </c>
       <c r="H89">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="I89">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J89">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K89">
         <v>96</v>
@@ -8406,70 +8409,70 @@
         <v>286</v>
       </c>
       <c r="N89">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="O89">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P89">
         <v>556</v>
       </c>
       <c r="Q89">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R89">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S89">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="T89">
         <v>2338</v>
       </c>
       <c r="U89">
-        <v>4218</v>
+        <v>4210</v>
       </c>
       <c r="V89">
-        <v>3478</v>
+        <v>3472</v>
       </c>
       <c r="W89">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="X89">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="Y89">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="Z89">
-        <v>5530</v>
+        <v>5528</v>
       </c>
       <c r="AA89">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="AB89">
-        <v>3615</v>
+        <v>3612</v>
       </c>
       <c r="AC89">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="AD89">
-        <v>4399</v>
+        <v>4403</v>
       </c>
       <c r="AE89">
         <v>1743</v>
       </c>
       <c r="AF89">
-        <v>34347</v>
+        <v>34342</v>
       </c>
       <c r="AG89">
-        <v>3103</v>
+        <v>3096</v>
       </c>
       <c r="AH89">
         <v>198</v>
       </c>
       <c r="AI89">
-        <v>37648</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="90" spans="1:35">
@@ -8477,67 +8480,67 @@
         <v>123</v>
       </c>
       <c r="B90">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C90">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D90">
-        <v>4005</v>
+        <v>4012</v>
       </c>
       <c r="E90">
-        <v>3621</v>
+        <v>3626</v>
       </c>
       <c r="F90">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G90">
-        <v>3895</v>
+        <v>3890</v>
       </c>
       <c r="H90">
         <v>1563</v>
       </c>
       <c r="I90">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="J90">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K90">
         <v>101</v>
       </c>
       <c r="L90">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M90">
         <v>291</v>
       </c>
       <c r="N90">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="O90">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P90">
         <v>541</v>
       </c>
       <c r="Q90">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R90">
         <v>661</v>
       </c>
       <c r="S90">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="T90">
-        <v>2354</v>
+        <v>2359</v>
       </c>
       <c r="U90">
-        <v>4267</v>
+        <v>4269</v>
       </c>
       <c r="V90">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="W90">
         <v>741</v>
@@ -8549,34 +8552,34 @@
         <v>1312</v>
       </c>
       <c r="Z90">
-        <v>5615</v>
+        <v>5616</v>
       </c>
       <c r="AA90">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="AB90">
-        <v>3660</v>
+        <v>3656</v>
       </c>
       <c r="AC90">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="AD90">
-        <v>4484</v>
+        <v>4481</v>
       </c>
       <c r="AE90">
         <v>1738</v>
       </c>
       <c r="AF90">
-        <v>34753</v>
+        <v>34765</v>
       </c>
       <c r="AG90">
-        <v>3136</v>
+        <v>3129</v>
       </c>
       <c r="AH90">
         <v>160</v>
       </c>
       <c r="AI90">
-        <v>38050</v>
+        <v>38055</v>
       </c>
     </row>
     <row r="91" spans="1:35">
@@ -8584,106 +8587,106 @@
         <v>124</v>
       </c>
       <c r="B91">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C91">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D91">
-        <v>3860</v>
+        <v>3854</v>
       </c>
       <c r="E91">
-        <v>3494</v>
+        <v>3489</v>
       </c>
       <c r="F91">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G91">
-        <v>4031</v>
+        <v>4039</v>
       </c>
       <c r="H91">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="I91">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J91">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="K91">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L91">
         <v>216</v>
       </c>
       <c r="M91">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N91">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="O91">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="P91">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Q91">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="R91">
         <v>660</v>
       </c>
       <c r="S91">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="T91">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="U91">
-        <v>4296</v>
+        <v>4308</v>
       </c>
       <c r="V91">
-        <v>3568</v>
+        <v>3576</v>
       </c>
       <c r="W91">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="X91">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="Y91">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Z91">
-        <v>5715</v>
+        <v>5721</v>
       </c>
       <c r="AA91">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AB91">
-        <v>3705</v>
+        <v>3713</v>
       </c>
       <c r="AC91">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="AD91">
-        <v>4484</v>
+        <v>4478</v>
       </c>
       <c r="AE91">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="AF91">
-        <v>35013</v>
+        <v>35019</v>
       </c>
       <c r="AG91">
-        <v>3146</v>
+        <v>3158</v>
       </c>
       <c r="AH91">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI91">
-        <v>38369</v>
+        <v>38386</v>
       </c>
     </row>
     <row r="92" spans="1:35">
@@ -8691,82 +8694,82 @@
         <v>125</v>
       </c>
       <c r="B92">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C92">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D92">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="E92">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="F92">
         <v>371</v>
       </c>
       <c r="G92">
-        <v>3973</v>
+        <v>3966</v>
       </c>
       <c r="H92">
         <v>1591</v>
       </c>
       <c r="I92">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="J92">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K92">
         <v>93</v>
       </c>
       <c r="L92">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M92">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N92">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="O92">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P92">
         <v>574</v>
       </c>
       <c r="Q92">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R92">
         <v>645</v>
       </c>
       <c r="S92">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="T92">
-        <v>2303</v>
+        <v>2294</v>
       </c>
       <c r="U92">
-        <v>4321</v>
+        <v>4312</v>
       </c>
       <c r="V92">
-        <v>3583</v>
+        <v>3575</v>
       </c>
       <c r="W92">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="X92">
         <v>1911</v>
       </c>
       <c r="Y92">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Z92">
-        <v>5722</v>
+        <v>5717</v>
       </c>
       <c r="AA92">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="AB92">
         <v>3687</v>
@@ -8775,22 +8778,22 @@
         <v>2857</v>
       </c>
       <c r="AD92">
-        <v>4513</v>
+        <v>4515</v>
       </c>
       <c r="AE92">
         <v>1758</v>
       </c>
       <c r="AF92">
-        <v>34931</v>
+        <v>34897</v>
       </c>
       <c r="AG92">
-        <v>3183</v>
+        <v>3190</v>
       </c>
       <c r="AH92">
         <v>186</v>
       </c>
       <c r="AI92">
-        <v>38300</v>
+        <v>38272</v>
       </c>
     </row>
     <row r="93" spans="1:35">
@@ -8798,106 +8801,106 @@
         <v>126</v>
       </c>
       <c r="B93">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C93">
         <v>224</v>
       </c>
       <c r="D93">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="E93">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="F93">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G93">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="H93">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="I93">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J93">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L93">
         <v>217</v>
       </c>
       <c r="M93">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N93">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="O93">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P93">
         <v>584</v>
       </c>
       <c r="Q93">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R93">
         <v>652</v>
       </c>
       <c r="S93">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="T93">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="U93">
-        <v>4324</v>
+        <v>4314</v>
       </c>
       <c r="V93">
-        <v>3564</v>
+        <v>3558</v>
       </c>
       <c r="W93">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="X93">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="Y93">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="Z93">
-        <v>5739</v>
+        <v>5736</v>
       </c>
       <c r="AA93">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AB93">
-        <v>3703</v>
+        <v>3699</v>
       </c>
       <c r="AC93">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="AD93">
-        <v>4618</v>
+        <v>4625</v>
       </c>
       <c r="AE93">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="AF93">
-        <v>35317</v>
+        <v>35319</v>
       </c>
       <c r="AG93">
-        <v>3207</v>
+        <v>3196</v>
       </c>
       <c r="AH93">
         <v>192</v>
       </c>
       <c r="AI93">
-        <v>38716</v>
+        <v>38706</v>
       </c>
     </row>
     <row r="94" spans="1:35">
@@ -8905,31 +8908,31 @@
         <v>127</v>
       </c>
       <c r="B94">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C94">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D94">
-        <v>3653</v>
+        <v>3661</v>
       </c>
       <c r="E94">
-        <v>3328</v>
+        <v>3334</v>
       </c>
       <c r="F94">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G94">
-        <v>3968</v>
+        <v>3965</v>
       </c>
       <c r="H94">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="I94">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J94">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K94">
         <v>97</v>
@@ -8938,73 +8941,73 @@
         <v>214</v>
       </c>
       <c r="M94">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N94">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="O94">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P94">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q94">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="R94">
         <v>675</v>
       </c>
       <c r="S94">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="T94">
-        <v>2380</v>
+        <v>2387</v>
       </c>
       <c r="U94">
-        <v>4327</v>
+        <v>4331</v>
       </c>
       <c r="V94">
-        <v>3576</v>
+        <v>3581</v>
       </c>
       <c r="W94">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="X94">
         <v>1927</v>
       </c>
       <c r="Y94">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Z94">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="AA94">
-        <v>2067</v>
+        <v>2076</v>
       </c>
       <c r="AB94">
-        <v>3794</v>
+        <v>3787</v>
       </c>
       <c r="AC94">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="AD94">
-        <v>4662</v>
+        <v>4656</v>
       </c>
       <c r="AE94">
         <v>1773</v>
       </c>
       <c r="AF94">
-        <v>35211</v>
+        <v>35232</v>
       </c>
       <c r="AG94">
-        <v>3206</v>
+        <v>3195</v>
       </c>
       <c r="AH94">
         <v>169</v>
       </c>
       <c r="AI94">
-        <v>38588</v>
+        <v>38599</v>
       </c>
     </row>
     <row r="95" spans="1:35">
@@ -9012,106 +9015,106 @@
         <v>128</v>
       </c>
       <c r="B95">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C95">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D95">
-        <v>3716</v>
+        <v>3708</v>
       </c>
       <c r="E95">
-        <v>3368</v>
+        <v>3362</v>
       </c>
       <c r="F95">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G95">
-        <v>4010</v>
+        <v>4017</v>
       </c>
       <c r="H95">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="I95">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="J95">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K95">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L95">
         <v>219</v>
       </c>
       <c r="M95">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N95">
-        <v>922</v>
+        <v>939</v>
       </c>
       <c r="O95">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="P95">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q95">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R95">
         <v>682</v>
       </c>
       <c r="S95">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="T95">
-        <v>2425</v>
+        <v>2431</v>
       </c>
       <c r="U95">
-        <v>4388</v>
+        <v>4404</v>
       </c>
       <c r="V95">
-        <v>3633</v>
+        <v>3644</v>
       </c>
       <c r="W95">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="X95">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="Y95">
         <v>1383</v>
       </c>
       <c r="Z95">
-        <v>5915</v>
+        <v>5923</v>
       </c>
       <c r="AA95">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="AB95">
-        <v>3832</v>
+        <v>3843</v>
       </c>
       <c r="AC95">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="AD95">
-        <v>4607</v>
+        <v>4602</v>
       </c>
       <c r="AE95">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AF95">
-        <v>35585</v>
+        <v>35590</v>
       </c>
       <c r="AG95">
-        <v>3245</v>
+        <v>3260</v>
       </c>
       <c r="AH95">
         <v>167</v>
       </c>
       <c r="AI95">
-        <v>38999</v>
+        <v>39019</v>
       </c>
     </row>
     <row r="96" spans="1:35">
@@ -9119,106 +9122,106 @@
         <v>129</v>
       </c>
       <c r="B96">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C96">
         <v>227</v>
       </c>
       <c r="D96">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="E96">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="F96">
         <v>375</v>
       </c>
       <c r="G96">
-        <v>4040</v>
+        <v>4031</v>
       </c>
       <c r="H96">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I96">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="J96">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K96">
         <v>93</v>
       </c>
       <c r="L96">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M96">
         <v>299</v>
       </c>
       <c r="N96">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="O96">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P96">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q96">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R96">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S96">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T96">
-        <v>2466</v>
+        <v>2452</v>
       </c>
       <c r="U96">
-        <v>4414</v>
+        <v>4401</v>
       </c>
       <c r="V96">
-        <v>3631</v>
+        <v>3619</v>
       </c>
       <c r="W96">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="X96">
         <v>1991</v>
       </c>
       <c r="Y96">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Z96">
-        <v>5974</v>
+        <v>5968</v>
       </c>
       <c r="AA96">
-        <v>2137</v>
+        <v>2129</v>
       </c>
       <c r="AB96">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="AC96">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="AD96">
-        <v>4634</v>
+        <v>4637</v>
       </c>
       <c r="AE96">
         <v>1807</v>
       </c>
       <c r="AF96">
-        <v>35929</v>
+        <v>35882</v>
       </c>
       <c r="AG96">
-        <v>3271</v>
+        <v>3282</v>
       </c>
       <c r="AH96">
         <v>163</v>
       </c>
       <c r="AI96">
-        <v>39367</v>
+        <v>39331</v>
       </c>
     </row>
     <row r="97" spans="1:35">
@@ -9226,31 +9229,31 @@
         <v>130</v>
       </c>
       <c r="B97">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C97">
         <v>218</v>
       </c>
       <c r="D97">
-        <v>3849</v>
+        <v>3853</v>
       </c>
       <c r="E97">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="F97">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G97">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="H97">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="I97">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J97">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K97">
         <v>80</v>
@@ -9262,70 +9265,70 @@
         <v>274</v>
       </c>
       <c r="N97">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="O97">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P97">
         <v>584</v>
       </c>
       <c r="Q97">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R97">
         <v>668</v>
       </c>
       <c r="S97">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="T97">
         <v>2454</v>
       </c>
       <c r="U97">
-        <v>4109</v>
+        <v>4098</v>
       </c>
       <c r="V97">
-        <v>3395</v>
+        <v>3386</v>
       </c>
       <c r="W97">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="X97">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="Y97">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="Z97">
-        <v>5944</v>
+        <v>5942</v>
       </c>
       <c r="AA97">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="AB97">
-        <v>3817</v>
+        <v>3813</v>
       </c>
       <c r="AC97">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="AD97">
-        <v>4092</v>
+        <v>4100</v>
       </c>
       <c r="AE97">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="AF97">
-        <v>34574</v>
+        <v>34581</v>
       </c>
       <c r="AG97">
-        <v>3087</v>
+        <v>3071</v>
       </c>
       <c r="AH97">
         <v>164</v>
       </c>
       <c r="AI97">
-        <v>37826</v>
+        <v>37818</v>
       </c>
     </row>
     <row r="98" spans="1:35">
@@ -9336,64 +9339,64 @@
         <v>1077</v>
       </c>
       <c r="C98">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D98">
-        <v>3851</v>
+        <v>3861</v>
       </c>
       <c r="E98">
-        <v>3449</v>
+        <v>3457</v>
       </c>
       <c r="F98">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G98">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="H98">
         <v>1555</v>
       </c>
       <c r="I98">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="J98">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K98">
         <v>81</v>
       </c>
       <c r="L98">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M98">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N98">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="O98">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P98">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="Q98">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="R98">
         <v>693</v>
       </c>
       <c r="S98">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="T98">
-        <v>2493</v>
+        <v>2500</v>
       </c>
       <c r="U98">
-        <v>4178</v>
+        <v>4184</v>
       </c>
       <c r="V98">
-        <v>3478</v>
+        <v>3484</v>
       </c>
       <c r="W98">
         <v>704</v>
@@ -9402,37 +9405,37 @@
         <v>1870</v>
       </c>
       <c r="Y98">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="Z98">
-        <v>6071</v>
+        <v>6072</v>
       </c>
       <c r="AA98">
-        <v>2171</v>
+        <v>2183</v>
       </c>
       <c r="AB98">
-        <v>3921</v>
+        <v>3912</v>
       </c>
       <c r="AC98">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="AD98">
-        <v>4361</v>
+        <v>4353</v>
       </c>
       <c r="AE98">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="AF98">
-        <v>35252</v>
+        <v>35276</v>
       </c>
       <c r="AG98">
-        <v>3117</v>
+        <v>3103</v>
       </c>
       <c r="AH98">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI98">
-        <v>38541</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="99" spans="1:35">
@@ -9440,106 +9443,106 @@
         <v>132</v>
       </c>
       <c r="B99">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D99">
-        <v>3835</v>
+        <v>3823</v>
       </c>
       <c r="E99">
-        <v>3442</v>
+        <v>3433</v>
       </c>
       <c r="F99">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G99">
-        <v>3553</v>
+        <v>3557</v>
       </c>
       <c r="H99">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="I99">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="J99">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K99">
         <v>51</v>
       </c>
       <c r="L99">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M99">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N99">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="O99">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P99">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Q99">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R99">
         <v>614</v>
       </c>
       <c r="S99">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="T99">
-        <v>1939</v>
+        <v>1949</v>
       </c>
       <c r="U99">
-        <v>3255</v>
+        <v>3268</v>
       </c>
       <c r="V99">
-        <v>2931</v>
+        <v>2941</v>
       </c>
       <c r="W99">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="X99">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="Y99">
         <v>1354</v>
       </c>
       <c r="Z99">
-        <v>5572</v>
+        <v>5581</v>
       </c>
       <c r="AA99">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="AB99">
-        <v>3481</v>
+        <v>3494</v>
       </c>
       <c r="AC99">
-        <v>2752</v>
+        <v>2745</v>
       </c>
       <c r="AD99">
-        <v>3266</v>
+        <v>3262</v>
       </c>
       <c r="AE99">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="AF99">
-        <v>30942</v>
+        <v>30938</v>
       </c>
       <c r="AG99">
-        <v>2558</v>
+        <v>2574</v>
       </c>
       <c r="AH99">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI99">
-        <v>33656</v>
+        <v>33665</v>
       </c>
     </row>
     <row r="100" spans="1:35">
@@ -9547,106 +9550,106 @@
         <v>133</v>
       </c>
       <c r="B100">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C100">
         <v>227</v>
       </c>
       <c r="D100">
-        <v>3850</v>
+        <v>3847</v>
       </c>
       <c r="E100">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="F100">
         <v>379</v>
       </c>
       <c r="G100">
-        <v>3789</v>
+        <v>3783</v>
       </c>
       <c r="H100">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I100">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="J100">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K100">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L100">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M100">
         <v>285</v>
       </c>
       <c r="N100">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="O100">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P100">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q100">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R100">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S100">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="T100">
-        <v>1735</v>
+        <v>1721</v>
       </c>
       <c r="U100">
-        <v>3984</v>
+        <v>3969</v>
       </c>
       <c r="V100">
-        <v>3597</v>
+        <v>3582</v>
       </c>
       <c r="W100">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X100">
         <v>1449</v>
       </c>
       <c r="Y100">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Z100">
-        <v>5633</v>
+        <v>5626</v>
       </c>
       <c r="AA100">
-        <v>2124</v>
+        <v>2115</v>
       </c>
       <c r="AB100">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="AC100">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="AD100">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="AE100">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="AF100">
-        <v>32328</v>
+        <v>32279</v>
       </c>
       <c r="AG100">
-        <v>3044</v>
+        <v>3058</v>
       </c>
       <c r="AH100">
         <v>156</v>
       </c>
       <c r="AI100">
-        <v>35528</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="101" spans="1:35">
@@ -9654,34 +9657,34 @@
         <v>134</v>
       </c>
       <c r="B101">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C101">
         <v>194</v>
       </c>
       <c r="D101">
-        <v>3746</v>
+        <v>3751</v>
       </c>
       <c r="E101">
-        <v>3352</v>
+        <v>3355</v>
       </c>
       <c r="F101">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G101">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="H101">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="I101">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="J101">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K101">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101">
         <v>212</v>
@@ -9690,70 +9693,70 @@
         <v>297</v>
       </c>
       <c r="N101">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="O101">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P101">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q101">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R101">
         <v>687</v>
       </c>
       <c r="S101">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="T101">
         <v>2168</v>
       </c>
       <c r="U101">
-        <v>4390</v>
+        <v>4376</v>
       </c>
       <c r="V101">
-        <v>3866</v>
+        <v>3854</v>
       </c>
       <c r="W101">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="X101">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="Y101">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="Z101">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="AA101">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="AB101">
-        <v>3675</v>
+        <v>3670</v>
       </c>
       <c r="AC101">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="AD101">
-        <v>4020</v>
+        <v>4029</v>
       </c>
       <c r="AE101">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="AF101">
-        <v>34381</v>
+        <v>34397</v>
       </c>
       <c r="AG101">
-        <v>3258</v>
+        <v>3238</v>
       </c>
       <c r="AH101">
         <v>152</v>
       </c>
       <c r="AI101">
-        <v>37792</v>
+        <v>37788</v>
       </c>
     </row>
     <row r="102" spans="1:35">
@@ -9761,106 +9764,213 @@
         <v>135</v>
       </c>
       <c r="B102">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="C102">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D102">
-        <v>3813</v>
+        <v>3822</v>
       </c>
       <c r="E102">
-        <v>3410</v>
+        <v>3418</v>
       </c>
       <c r="F102">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G102">
-        <v>4053</v>
+        <v>4083</v>
       </c>
       <c r="H102">
-        <v>1581</v>
+        <v>1609</v>
       </c>
       <c r="I102">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="J102">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="K102">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L102">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M102">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N102">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="O102">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P102">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Q102">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R102">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S102">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="T102">
-        <v>2206</v>
+        <v>2221</v>
       </c>
       <c r="U102">
-        <v>4476</v>
+        <v>4461</v>
       </c>
       <c r="V102">
-        <v>3931</v>
+        <v>3917</v>
       </c>
       <c r="W102">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="X102">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="Y102">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="Z102">
-        <v>5941</v>
+        <v>5952</v>
       </c>
       <c r="AA102">
-        <v>2161</v>
+        <v>2173</v>
       </c>
       <c r="AB102">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="AC102">
-        <v>2913</v>
+        <v>2931</v>
       </c>
       <c r="AD102">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="AE102">
-        <v>1886</v>
+        <v>1895</v>
       </c>
       <c r="AF102">
-        <v>35482</v>
+        <v>35573</v>
       </c>
       <c r="AG102">
-        <v>3339</v>
+        <v>3307</v>
       </c>
       <c r="AH102">
         <v>182</v>
       </c>
       <c r="AI102">
-        <v>38998</v>
+        <v>39060</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103">
+        <v>1104</v>
+      </c>
+      <c r="C103">
+        <v>220</v>
+      </c>
+      <c r="D103">
+        <v>3940</v>
+      </c>
+      <c r="E103">
+        <v>3507</v>
+      </c>
+      <c r="F103">
+        <v>432</v>
+      </c>
+      <c r="G103">
+        <v>4130</v>
+      </c>
+      <c r="H103">
+        <v>1643</v>
+      </c>
+      <c r="I103">
+        <v>1081</v>
+      </c>
+      <c r="J103">
+        <v>563</v>
+      </c>
+      <c r="K103">
+        <v>89</v>
+      </c>
+      <c r="L103">
+        <v>224</v>
+      </c>
+      <c r="M103">
+        <v>289</v>
+      </c>
+      <c r="N103">
+        <v>904</v>
+      </c>
+      <c r="O103">
+        <v>283</v>
+      </c>
+      <c r="P103">
+        <v>618</v>
+      </c>
+      <c r="Q103">
+        <v>258</v>
+      </c>
+      <c r="R103">
+        <v>732</v>
+      </c>
+      <c r="S103">
+        <v>1121</v>
+      </c>
+      <c r="T103">
+        <v>2244</v>
+      </c>
+      <c r="U103">
+        <v>4808</v>
+      </c>
+      <c r="V103">
+        <v>4226</v>
+      </c>
+      <c r="W103">
+        <v>623</v>
+      </c>
+      <c r="X103">
+        <v>1635</v>
+      </c>
+      <c r="Y103">
+        <v>1462</v>
+      </c>
+      <c r="Z103">
+        <v>6054</v>
+      </c>
+      <c r="AA103">
+        <v>2230</v>
+      </c>
+      <c r="AB103">
+        <v>3860</v>
+      </c>
+      <c r="AC103">
+        <v>2918</v>
+      </c>
+      <c r="AD103">
+        <v>4230</v>
+      </c>
+      <c r="AE103">
+        <v>1908</v>
+      </c>
+      <c r="AF103">
+        <v>35758</v>
+      </c>
+      <c r="AG103">
+        <v>3535</v>
+      </c>
+      <c r="AH103">
+        <v>181</v>
+      </c>
+      <c r="AI103">
+        <v>39460</v>
       </c>
     </row>
   </sheetData>
